--- a/docs/总体API.xlsx
+++ b/docs/总体API.xlsx
@@ -866,22 +866,6 @@
     <t>url: /request
 contentType:json
 Cookie: username=$secret_username
-content: 
-{status: "ok" or 失败原因(如notLoggedIn, expired, noAuth, otherReason),
-dataLength: 3（请求list的长度）
-canModify: "true" or "false" 
-data: [{"fileName":"用户-zhangsan","type":"userFolder","filesContain":"8","size":"","dateModified":"1792553248","children":"notLoaded","authRead":"true","authWrite":"false" or "notConsist",usedByTask:false},
-       {"fileName":"1.jpg","type":"image","filesContain":"","size":"131225"（字节）,"dateModified":"1792573248"(timestamp),usedByTask:false},
-       {"fileName":"洛阳巡检","type":"folder","filesContain":"124","size":"","dateModified":"1792563248", 
-            children:[{fileName:...},{fileName:...},...],"authRead":"true","authWrite":"mixed",usedByTask:true}
-      ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>url: /request
-contentType:json
-Cookie: username=$secret_username
 {action: "changeTaskStatus",
 data: {taskName:$taskName, targetStatus:"run","stop"} }
 }</t>
@@ -1011,6 +995,22 @@
 content: 
 {action: "deleteUser",
 data: {username:[$username_to_be_del],"delUserFolder":"true"}
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>url: /request
+contentType:json
+Cookie: username=$secret_username
+content: 
+{status: "ok" or 失败原因(如notLoggedIn, expired, noAuth, otherReason),
+dataLength: 3（请求list的长度）
+canModify: "true" or "false" 
+data: [{"fileName":"用户-zhangsan","type":"userFolder","filesContain":"8","size":"","dateModified":"1792553248","children":"notLoaded","authRead":"true","authWrite":"false" or "mixed",usedByTask:false},
+       {"fileName":"1.jpg","type":"image","filesContain":"","size":"131225"（字节）,"dateModified":"1792573248"(timestamp),usedByTask:false},
+       {"fileName":"洛阳巡检","type":"folder","filesContain":"124","size":"","dateModified":"1792563248", 
+            children:[{fileName:...},{fileName:...},...],"authRead":"true","authWrite":"mixed",usedByTask:true}
+      ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1258,40 +1258,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1313,21 +1328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1605,8 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1636,7 @@
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
@@ -1661,7 +1661,7 @@
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="34"/>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -1741,10 +1741,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="14"/>
@@ -1771,8 +1771,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16" t="s">
@@ -1794,14 +1794,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -1821,10 +1821,10 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="29" t="s">
         <v>148</v>
       </c>
@@ -1844,10 +1844,10 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:14" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="40"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="29" t="s">
         <v>153</v>
       </c>
@@ -1865,10 +1865,10 @@
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="40"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="17"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1880,17 +1880,17 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1901,10 +1901,10 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="19" t="s">
         <v>16</v>
       </c>
@@ -1922,16 +1922,16 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1947,900 +1947,900 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="52" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" ht="144" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="52" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" ht="144" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:14" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="40"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="30"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="30"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="45" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="F32" s="32"/>
+      <c r="G32" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="45" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+      <c r="F35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="30"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="43" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="30"/>
     </row>
     <row r="37" spans="1:14" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51" t="s">
+      <c r="F37" s="32"/>
+      <c r="G37" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="30"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="30"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51" t="s">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="30"/>
     </row>
     <row r="40" spans="1:14" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="H40" s="51" t="s">
+      <c r="F40" s="32"/>
+      <c r="G40" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
       <c r="N40" s="30"/>
     </row>
-    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
       <c r="N41" s="30"/>
     </row>
     <row r="42" spans="1:14" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="32"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="30"/>
     </row>
     <row r="43" spans="1:14" ht="216" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="32"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51" t="s">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="30"/>
     </row>
     <row r="44" spans="1:14" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="32"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
+        <v>195</v>
+      </c>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="32"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
       <c r="N45" s="30"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="30"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="32"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
       <c r="N47" s="30"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="32"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="30"/>
     </row>
     <row r="49" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="30"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="14"/>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="43" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="30"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="30"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
       <c r="N52" s="30"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="14"/>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="45" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
       <c r="N53" s="30"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="33"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
       <c r="N54" s="30"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="16"/>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
       <c r="N55" s="30"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="16"/>
-      <c r="D56" s="33"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
       <c r="N56" s="30"/>
     </row>
     <row r="57" spans="1:14" ht="374.4" x14ac:dyDescent="0.25">
@@ -2849,142 +2849,142 @@
       <c r="C57" s="25"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51" t="s">
+      <c r="F57" s="32"/>
+      <c r="G57" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="26" t="s">
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="30"/>
+    </row>
+    <row r="58" spans="1:14" ht="216" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="30"/>
-    </row>
-    <row r="58" spans="1:14" ht="216" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="55" t="s">
+      <c r="H58" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="H58" s="26" t="s">
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="30"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
       <c r="N59" s="30"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
       <c r="N60" s="30"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="33"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
       <c r="N61" s="30"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="16"/>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="45" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
       <c r="N62" s="30"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="33"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
       <c r="N63" s="30"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>146</v>
       </c>
       <c r="K67" s="26" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,16 +3075,31 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A63"/>
@@ -3101,31 +3116,16 @@
     <mergeCell ref="A36:A49"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3163,7 +3163,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3173,7 +3173,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3203,7 +3203,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3265,7 +3265,7 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3327,7 +3327,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3387,7 +3387,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3425,7 +3425,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3485,7 +3485,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3595,7 +3595,7 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3615,7 +3615,7 @@
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3647,7 +3647,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3679,7 +3679,7 @@
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="1" t="s">
         <v>77</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3701,7 +3701,7 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="1" t="s">
         <v>98</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="1" t="s">
         <v>77</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="1" t="s">
         <v>77</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="1" t="s">
         <v>77</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3783,7 +3783,7 @@
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="1" t="s">
         <v>77</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="1" t="s">
         <v>77</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="1" t="s">
         <v>77</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="1" t="s">
         <v>100</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3845,7 +3845,7 @@
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="1" t="s">
         <v>75</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="1" t="s">
         <v>77</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="1" t="s">
         <v>89</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="1" t="s">
         <v>81</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="1" t="s">
         <v>89</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="1" t="s">
         <v>110</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="1" t="s">
         <v>84</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="1" t="s">
         <v>84</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="35" t="s">
         <v>114</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3969,7 +3969,7 @@
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="1" t="s">
         <v>77</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
@@ -3990,21 +3990,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A80:A82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4045,10 +4045,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="2"/>
@@ -4057,16 +4057,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>77</v>
@@ -4076,10 +4076,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="35" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="2"/>
@@ -4091,8 +4091,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>76</v>
@@ -4102,8 +4102,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>76</v>
@@ -4113,8 +4113,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>119</v>
@@ -4124,8 +4124,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>119</v>
@@ -4135,8 +4135,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>77</v>
@@ -4146,10 +4146,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="35" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="2"/>
@@ -4161,8 +4161,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>77</v>
@@ -4172,8 +4172,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>77</v>
@@ -4183,8 +4183,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>77</v>
@@ -4194,8 +4194,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
         <v>77</v>
@@ -4205,8 +4205,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
         <v>77</v>
@@ -4216,10 +4216,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="2"/>
@@ -4231,8 +4231,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>76</v>
@@ -4242,8 +4242,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
         <v>77</v>
@@ -4253,8 +4253,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>84</v>
@@ -4264,8 +4264,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>89</v>
@@ -4275,8 +4275,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>77</v>
@@ -4286,10 +4286,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="35" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="2"/>
@@ -4298,16 +4298,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>89</v>
@@ -4317,8 +4317,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
         <v>77</v>
@@ -4328,10 +4328,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="35" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="2"/>
@@ -4343,8 +4343,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
         <v>89</v>
@@ -4354,8 +4354,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>77</v>
@@ -4381,10 +4381,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="35" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="2"/>
@@ -4396,8 +4396,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>77</v>
@@ -4407,8 +4407,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
         <v>77</v>
@@ -4418,8 +4418,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
         <v>77</v>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>77</v>
@@ -4440,8 +4440,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>77</v>
@@ -4451,8 +4451,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
         <v>77</v>
@@ -4462,8 +4462,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
         <v>77</v>
@@ -4473,8 +4473,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
         <v>126</v>
@@ -4484,8 +4484,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
         <v>75</v>
@@ -4495,8 +4495,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
         <v>89</v>
@@ -4506,10 +4506,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="2"/>
@@ -4518,18 +4518,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C45" s="2"/>
@@ -4541,8 +4541,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1" t="s">
         <v>77</v>
@@ -4552,8 +4552,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="35"/>
       <c r="D47" s="1" t="s">
         <v>77</v>
       </c>
@@ -4562,10 +4562,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="41"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>84</v>
@@ -4575,8 +4575,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1" t="s">
         <v>77</v>
@@ -4586,8 +4586,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="35"/>
       <c r="D50" s="1" t="s">
         <v>77</v>
       </c>
@@ -4606,10 +4606,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="50" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="2"/>
@@ -4621,8 +4621,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1" t="s">
         <v>75</v>
@@ -4632,8 +4632,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
         <v>77</v>
@@ -4643,8 +4643,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="s">
         <v>126</v>
@@ -4654,8 +4654,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1" t="s">
         <v>77</v>
@@ -4665,8 +4665,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
         <v>77</v>
@@ -4676,8 +4676,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
         <v>77</v>
@@ -4687,8 +4687,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1" t="s">
         <v>77</v>
@@ -4698,10 +4698,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C60" s="2"/>
@@ -4713,8 +4713,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1" t="s">
         <v>77</v>
@@ -4724,8 +4724,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1" t="s">
         <v>77</v>
@@ -4735,8 +4735,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="2"/>
       <c r="D63" s="1" t="s">
         <v>77</v>
@@ -4746,8 +4746,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="2"/>
       <c r="D64" s="1" t="s">
         <v>100</v>
@@ -4757,8 +4757,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1" t="s">
         <v>75</v>
@@ -4768,10 +4768,10 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="2"/>
@@ -4783,8 +4783,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1" t="s">
         <v>75</v>
@@ -4794,8 +4794,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1" t="s">
         <v>77</v>
@@ -4805,8 +4805,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="2"/>
       <c r="D69" s="1" t="s">
         <v>89</v>
@@ -4816,9 +4816,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="48" t="s">
+      <c r="A70" s="35"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="53" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4829,9 +4829,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="49"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="1" t="s">
         <v>89</v>
       </c>
@@ -4840,9 +4840,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="50"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="1" t="s">
         <v>89</v>
       </c>
@@ -4851,8 +4851,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1" t="s">
         <v>110</v>
@@ -4862,8 +4862,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3" t="s">
         <v>84</v>
@@ -4873,8 +4873,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3" t="s">
         <v>84</v>
@@ -4884,8 +4884,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1" t="s">
         <v>77</v>
@@ -4910,10 +4910,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="50" t="s">
         <v>128</v>
       </c>
       <c r="C78" s="2"/>
@@ -4925,8 +4925,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
         <v>77</v>
@@ -4936,8 +4936,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1" t="s">
         <v>77</v>
@@ -4948,26 +4948,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="C70:C72"/>
     <mergeCell ref="A52:A59"/>
@@ -4976,6 +4956,26 @@
     <mergeCell ref="A78:A80"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B66:B76"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
